--- a/data/transition_energetique.xlsx
+++ b/data/transition_energetique.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t xml:space="preserve">Numero</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">Réduire les consommations énergétiques du bâtiment;Optimiser l’éclairage public;Favoriser les solutions économes en énergie et l’économie circulaire des matériaux du BTP;Réussir son projet territorial énergie climat;Dimensionner au plus juste les équipements et bâtiments en fonction des usages réels;Mettre en place une organisation collective incitative pour modérer les consommations d’énergie (ex : limiter les déplacements, développer les transports en commun);Développer les énergies renouvelables;Développer les réseaux de chaleur et de froid;Accompagner la transition énergétique des systèmes de transport (dont flottes de bus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres besoins sur la transition énergétique [Limité à 200 caractères]</t>
   </si>
   <si>
     <t xml:space="preserve">Autres besoins sur la transition énergétique  </t>
@@ -412,7 +415,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -690,10 +693,10 @@
         <v>33</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
